--- a/src/DayBook_all.xlsx
+++ b/src/DayBook_all.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2255"/>
+  <dimension ref="A1:J2263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -84079,22 +84079,22 @@
         </is>
       </c>
       <c r="C2212">
-        <v>3371487</v>
+        <v>3774212</v>
       </c>
       <c r="D2212">
-        <v>606867.72</v>
+        <v>679358.24</v>
       </c>
       <c r="E2212">
-        <v>3978355</v>
+        <v>4453570</v>
       </c>
       <c r="F2212">
-        <v>372.54</v>
+        <v>417.04</v>
       </c>
       <c r="G2212">
         <v>9050</v>
       </c>
       <c r="H2212">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2212" t="inlineStr">
         <is>
@@ -84117,22 +84117,22 @@
         </is>
       </c>
       <c r="C2213">
-        <v>2478072</v>
+        <v>2835547</v>
       </c>
       <c r="D2213">
-        <v>446052.96</v>
+        <v>510398.46</v>
       </c>
       <c r="E2213">
-        <v>2924126</v>
+        <v>3345947</v>
       </c>
       <c r="F2213">
-        <v>313.68</v>
+        <v>358.93</v>
       </c>
       <c r="G2213">
         <v>7900</v>
       </c>
       <c r="H2213">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2213" t="inlineStr">
         <is>
@@ -84155,22 +84155,22 @@
         </is>
       </c>
       <c r="C2214">
-        <v>2141889</v>
+        <v>2501865</v>
       </c>
       <c r="D2214">
-        <v>385540.02</v>
+        <v>450335.7</v>
       </c>
       <c r="E2214">
-        <v>2527428</v>
+        <v>2952200</v>
       </c>
       <c r="F2214">
-        <v>269.42</v>
+        <v>314.7</v>
       </c>
       <c r="G2214">
-        <v>7949.999999999999</v>
+        <v>7950.000000000001</v>
       </c>
       <c r="H2214">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2214" t="inlineStr">
         <is>
@@ -84231,22 +84231,22 @@
         </is>
       </c>
       <c r="C2216">
-        <v>1439854</v>
+        <v>1739580</v>
       </c>
       <c r="D2216">
-        <v>288019.8</v>
+        <v>341970.48</v>
       </c>
       <c r="E2216">
-        <v>1888130</v>
+        <v>2241807</v>
       </c>
       <c r="F2216">
-        <v>182.26</v>
+        <v>220.2</v>
       </c>
       <c r="G2216">
-        <v>7900</v>
+        <v>7899.999999999999</v>
       </c>
       <c r="H2216">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2216" t="inlineStr">
         <is>
@@ -84260,7 +84260,7 @@
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>Minera Steel &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
@@ -84269,26 +84269,26 @@
         </is>
       </c>
       <c r="C2217">
-        <v>1592888</v>
+        <v>1750644</v>
       </c>
       <c r="D2217">
-        <v>286719.84</v>
+        <v>315115.92</v>
       </c>
       <c r="E2217">
-        <v>1879608</v>
+        <v>2065759</v>
       </c>
       <c r="F2217">
-        <v>173.14</v>
+        <v>208.41</v>
       </c>
       <c r="G2217">
-        <v>9200</v>
+        <v>8400</v>
       </c>
       <c r="H2217">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2217" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2217" s="2">
@@ -84298,7 +84298,7 @@
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
@@ -84307,26 +84307,26 @@
         </is>
       </c>
       <c r="C2218">
-        <v>1135134</v>
+        <v>1868704</v>
       </c>
       <c r="D2218">
-        <v>230466.42</v>
+        <v>336366.72</v>
       </c>
       <c r="E2218">
-        <v>1510835</v>
+        <v>2205071</v>
       </c>
       <c r="F2218">
-        <v>145.53</v>
+        <v>203.12</v>
       </c>
       <c r="G2218">
-        <v>7800</v>
+        <v>9200</v>
       </c>
       <c r="H2218">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I2218" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J2218" s="2">
@@ -84336,7 +84336,7 @@
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>M S METALS &amp; STEELS PRIVATE LIMITED - TN - Unit 1</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
@@ -84345,26 +84345,26 @@
         </is>
       </c>
       <c r="C2219">
-        <v>1254601.5</v>
+        <v>1476696</v>
       </c>
       <c r="D2219">
-        <v>225828.27</v>
+        <v>297465.12</v>
       </c>
       <c r="E2219">
-        <v>1480430</v>
+        <v>1950049</v>
       </c>
       <c r="F2219">
-        <v>138.63</v>
+        <v>189.32</v>
       </c>
       <c r="G2219">
-        <v>9050</v>
+        <v>7800</v>
       </c>
       <c r="H2219">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2219" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2219" s="2">
@@ -84383,22 +84383,22 @@
         </is>
       </c>
       <c r="C2220">
-        <v>1074681</v>
+        <v>1440142.5</v>
       </c>
       <c r="D2220">
-        <v>193442.6</v>
+        <v>259225.68</v>
       </c>
       <c r="E2220">
-        <v>1268124</v>
+        <v>1699369</v>
       </c>
       <c r="F2220">
-        <v>135.18</v>
+        <v>181.15</v>
       </c>
       <c r="G2220">
         <v>7950</v>
       </c>
       <c r="H2220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2220" t="inlineStr">
         <is>
@@ -84412,7 +84412,7 @@
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>Minera Steel &amp; Power Pvt Ltd</t>
+          <t>RDTMT Steels India Pvt Ltd</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
@@ -84421,22 +84421,22 @@
         </is>
       </c>
       <c r="C2221">
-        <v>1061256</v>
+        <v>1304550</v>
       </c>
       <c r="D2221">
-        <v>191026.08</v>
+        <v>178967.88</v>
       </c>
       <c r="E2221">
-        <v>1252282</v>
+        <v>1539369</v>
       </c>
       <c r="F2221">
-        <v>126.34</v>
+        <v>167.25</v>
       </c>
       <c r="G2221">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="H2221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2221" t="inlineStr">
         <is>
@@ -84450,31 +84450,26 @@
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
-        </is>
-      </c>
-      <c r="B2222" t="inlineStr">
-        <is>
-          <t>Boron Oxide Premix</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C2222">
-        <v>1006652.5</v>
+        <v>20850</v>
       </c>
       <c r="D2222">
-        <v>181197.45</v>
+        <v>3753</v>
       </c>
       <c r="E2222">
-        <v>1187850</v>
+        <v>24603</v>
       </c>
       <c r="F2222">
-        <v>125.05</v>
+        <v>150</v>
       </c>
       <c r="G2222">
-        <v>8049.999999999999</v>
+        <v>139</v>
       </c>
       <c r="H2222">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2222" t="inlineStr">
         <is>
@@ -84488,7 +84483,7 @@
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>RDTMT Steels India Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
@@ -84497,26 +84492,26 @@
         </is>
       </c>
       <c r="C2223">
-        <v>954174</v>
+        <v>1090828</v>
       </c>
       <c r="D2223">
-        <v>115900.2</v>
+        <v>196349.04</v>
       </c>
       <c r="E2223">
-        <v>1125925</v>
+        <v>1287177</v>
       </c>
       <c r="F2223">
-        <v>122.33</v>
+        <v>143.53</v>
       </c>
       <c r="G2223">
-        <v>7799.999999999999</v>
+        <v>7600</v>
       </c>
       <c r="H2223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2223" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2223" s="2">
@@ -84526,7 +84521,7 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>TEXCON STEELS LIMITED</t>
+          <t>M S METALS &amp; STEELS PRIVATE LIMITED - TN - Unit 1</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
@@ -84535,26 +84530,26 @@
         </is>
       </c>
       <c r="C2224">
-        <v>923307</v>
+        <v>1254601.5</v>
       </c>
       <c r="D2224">
-        <v>166195.26</v>
+        <v>225828.27</v>
       </c>
       <c r="E2224">
-        <v>1089503</v>
+        <v>1480430</v>
       </c>
       <c r="F2224">
-        <v>119.91</v>
+        <v>138.63</v>
       </c>
       <c r="G2224">
-        <v>7700</v>
+        <v>9050</v>
       </c>
       <c r="H2224">
         <v>6</v>
       </c>
       <c r="I2224" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J2224" s="2">
@@ -84564,7 +84559,7 @@
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
@@ -84573,19 +84568,19 @@
         </is>
       </c>
       <c r="C2225">
-        <v>887280</v>
+        <v>1016730</v>
       </c>
       <c r="D2225">
-        <v>159710.4</v>
+        <v>183011.4</v>
       </c>
       <c r="E2225">
-        <v>1046991</v>
+        <v>1199743</v>
       </c>
       <c r="F2225">
-        <v>110.91</v>
+        <v>130.35</v>
       </c>
       <c r="G2225">
-        <v>8000</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H2225">
         <v>6</v>
@@ -84602,35 +84597,35 @@
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2226">
-        <v>815632</v>
+        <v>405376</v>
       </c>
       <c r="D2226">
-        <v>146813.76</v>
+        <v>72967.67999999999</v>
       </c>
       <c r="E2226">
-        <v>962446</v>
+        <v>478343</v>
       </c>
       <c r="F2226">
-        <v>107.32</v>
+        <v>126.68</v>
       </c>
       <c r="G2226">
-        <v>7599.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H2226">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2226" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2226" s="2">
@@ -84640,31 +84635,31 @@
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2227">
-        <v>336448</v>
+        <v>1006652.5</v>
       </c>
       <c r="D2227">
-        <v>60560.64</v>
+        <v>181197.45</v>
       </c>
       <c r="E2227">
-        <v>397008</v>
+        <v>1187850</v>
       </c>
       <c r="F2227">
-        <v>105.14</v>
+        <v>125.05</v>
       </c>
       <c r="G2227">
-        <v>3200</v>
+        <v>8049.999999999999</v>
       </c>
       <c r="H2227">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2227" t="inlineStr">
         <is>
@@ -84678,7 +84673,7 @@
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>Arun Vyapar Udyog Private Limited</t>
+          <t>KUBAIR STEEL AND POWER LLP</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
@@ -84687,22 +84682,22 @@
         </is>
       </c>
       <c r="C2228">
-        <v>859971</v>
+        <v>964960</v>
       </c>
       <c r="D2228">
-        <v>154794.78</v>
+        <v>173692.8</v>
       </c>
       <c r="E2228">
-        <v>1014767</v>
+        <v>1138652</v>
       </c>
       <c r="F2228">
-        <v>92.47</v>
+        <v>120.62</v>
       </c>
       <c r="G2228">
-        <v>9300</v>
+        <v>8000</v>
       </c>
       <c r="H2228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2228" t="inlineStr">
         <is>
@@ -84716,7 +84711,7 @@
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>Keshree Metalurgies Pvt Ltd</t>
+          <t>TEXCON STEELS LIMITED</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
@@ -84725,26 +84720,26 @@
         </is>
       </c>
       <c r="C2229">
-        <v>795637.5</v>
+        <v>923307</v>
       </c>
       <c r="D2229">
-        <v>143214.75</v>
+        <v>166195.26</v>
       </c>
       <c r="E2229">
-        <v>938853</v>
+        <v>1089503</v>
       </c>
       <c r="F2229">
-        <v>90.93000000000001</v>
+        <v>119.91</v>
       </c>
       <c r="G2229">
-        <v>8750</v>
+        <v>7700</v>
       </c>
       <c r="H2229">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2229" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2229" s="2">
@@ -84754,31 +84749,31 @@
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>S.R. STEEL PVT LTD</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C2230">
-        <v>706290</v>
+        <v>1062544</v>
       </c>
       <c r="D2230">
-        <v>127132.2</v>
+        <v>0</v>
       </c>
       <c r="E2230">
-        <v>833423</v>
+        <v>1062544</v>
       </c>
       <c r="F2230">
-        <v>90.55</v>
+        <v>112</v>
       </c>
       <c r="G2230">
-        <v>7800</v>
+        <v>9487</v>
       </c>
       <c r="H2230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2230" t="inlineStr">
         <is>
@@ -84792,7 +84787,7 @@
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
@@ -84801,26 +84796,26 @@
         </is>
       </c>
       <c r="C2231">
-        <v>701766</v>
+        <v>887280</v>
       </c>
       <c r="D2231">
-        <v>126317.88</v>
+        <v>159710.4</v>
       </c>
       <c r="E2231">
-        <v>828083</v>
+        <v>1046991</v>
       </c>
       <c r="F2231">
-        <v>89.97</v>
+        <v>110.91</v>
       </c>
       <c r="G2231">
-        <v>7799.999999999999</v>
+        <v>8000</v>
       </c>
       <c r="H2231">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2231" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2231" s="2">
@@ -84830,7 +84825,7 @@
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>KUBAIR STEEL AND POWER LLP</t>
+          <t>Arun Vyapar Udyog Private Limited</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
@@ -84839,22 +84834,22 @@
         </is>
       </c>
       <c r="C2232">
-        <v>684160</v>
+        <v>859971</v>
       </c>
       <c r="D2232">
-        <v>123148.8</v>
+        <v>154794.78</v>
       </c>
       <c r="E2232">
-        <v>807308</v>
+        <v>1014767</v>
       </c>
       <c r="F2232">
-        <v>85.52</v>
+        <v>92.47</v>
       </c>
       <c r="G2232">
-        <v>8000</v>
+        <v>9300</v>
       </c>
       <c r="H2232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2232" t="inlineStr">
         <is>
@@ -84868,35 +84863,35 @@
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>Keshree Metalurgies Pvt Ltd</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2233">
-        <v>548508</v>
+        <v>795637.5</v>
       </c>
       <c r="D2233">
-        <v>108333.72</v>
+        <v>143214.75</v>
       </c>
       <c r="E2233">
-        <v>710188</v>
+        <v>938853</v>
       </c>
       <c r="F2233">
-        <v>85.03999999999999</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="G2233">
-        <v>6450</v>
+        <v>8750</v>
       </c>
       <c r="H2233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2233" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2233" s="2">
@@ -84906,7 +84901,7 @@
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
@@ -84915,26 +84910,26 @@
         </is>
       </c>
       <c r="C2234">
-        <v>481110</v>
+        <v>701766</v>
       </c>
       <c r="D2234">
-        <v>86599.8</v>
+        <v>126317.88</v>
       </c>
       <c r="E2234">
-        <v>567709</v>
+        <v>828083</v>
       </c>
       <c r="F2234">
-        <v>60.9</v>
+        <v>89.97</v>
       </c>
       <c r="G2234">
-        <v>7900</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H2234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2234" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2234" s="2">
@@ -84944,32 +84939,35 @@
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2235">
-        <v>160256</v>
+        <v>548508</v>
       </c>
       <c r="D2235">
-        <v>0</v>
+        <v>108333.72</v>
+      </c>
+      <c r="E2235">
+        <v>710188</v>
       </c>
       <c r="F2235">
-        <v>50.08</v>
+        <v>85.03999999999999</v>
       </c>
       <c r="G2235">
-        <v>3200</v>
+        <v>6450</v>
       </c>
       <c r="H2235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2235" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J2235" s="2">
@@ -84979,28 +84977,28 @@
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2236">
-        <v>158458.5</v>
+        <v>536640</v>
       </c>
       <c r="D2236">
-        <v>28522.53</v>
+        <v>96595.2</v>
       </c>
       <c r="E2236">
-        <v>186981</v>
+        <v>633235</v>
       </c>
       <c r="F2236">
-        <v>45.93</v>
+        <v>67.08</v>
       </c>
       <c r="G2236">
-        <v>3450</v>
+        <v>8000</v>
       </c>
       <c r="H2236">
         <v>2</v>
@@ -85017,31 +85015,28 @@
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C2237">
-        <v>361680</v>
+        <v>87166.98000000001</v>
       </c>
       <c r="D2237">
-        <v>65102.4</v>
-      </c>
-      <c r="E2237">
-        <v>426782</v>
+        <v>4358.34</v>
       </c>
       <c r="F2237">
-        <v>45.21</v>
+        <v>62.28</v>
       </c>
       <c r="G2237">
-        <v>8000</v>
+        <v>1399.598265895954</v>
       </c>
       <c r="H2237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2237" t="inlineStr">
         <is>
@@ -85055,35 +85050,35 @@
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>A ONE STEELS INDIA LIMITED-GBD</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2238">
-        <v>138379.5</v>
+        <v>481110</v>
       </c>
       <c r="D2238">
-        <v>24908.31</v>
+        <v>86599.8</v>
       </c>
       <c r="E2238">
-        <v>163288</v>
+        <v>567709</v>
       </c>
       <c r="F2238">
-        <v>43.93</v>
+        <v>60.9</v>
       </c>
       <c r="G2238">
-        <v>3150</v>
+        <v>7900</v>
       </c>
       <c r="H2238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2238" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J2238" s="2">
@@ -85093,28 +85088,25 @@
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2239">
-        <v>100464</v>
+        <v>160256</v>
       </c>
       <c r="D2239">
-        <v>5023.200000000001</v>
-      </c>
-      <c r="E2239">
-        <v>105488</v>
+        <v>0</v>
       </c>
       <c r="F2239">
-        <v>35.88</v>
+        <v>50.08</v>
       </c>
       <c r="G2239">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="H2239">
         <v>2</v>
@@ -85131,7 +85123,7 @@
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
@@ -85140,16 +85132,19 @@
         </is>
       </c>
       <c r="C2240">
-        <v>113504</v>
+        <v>158458.5</v>
       </c>
       <c r="D2240">
-        <v>0</v>
+        <v>28522.53</v>
+      </c>
+      <c r="E2240">
+        <v>186981</v>
       </c>
       <c r="F2240">
-        <v>35.47</v>
+        <v>45.93</v>
       </c>
       <c r="G2240">
-        <v>3200</v>
+        <v>3450</v>
       </c>
       <c r="H2240">
         <v>2</v>
@@ -85166,35 +85161,35 @@
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>SREE PALANIANDAVAR ALLOYS AND STEELS PVT LTD</t>
+          <t>A ONE STEELS INDIA LIMITED-GBD</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2241">
-        <v>222201</v>
+        <v>138379.5</v>
       </c>
       <c r="D2241">
-        <v>39996.18</v>
+        <v>24908.31</v>
       </c>
       <c r="E2241">
-        <v>262197</v>
+        <v>163288</v>
       </c>
       <c r="F2241">
-        <v>35.27</v>
+        <v>43.93</v>
       </c>
       <c r="G2241">
-        <v>6299.999999999999</v>
+        <v>3150</v>
       </c>
       <c r="H2241">
         <v>1</v>
       </c>
       <c r="I2241" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2241" s="2">
@@ -85204,35 +85199,35 @@
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C2242">
-        <v>220815</v>
+        <v>100464</v>
       </c>
       <c r="D2242">
-        <v>39746.7</v>
+        <v>5023.200000000001</v>
       </c>
       <c r="E2242">
-        <v>260561</v>
+        <v>105488</v>
       </c>
       <c r="F2242">
-        <v>35.05</v>
+        <v>35.88</v>
       </c>
       <c r="G2242">
-        <v>6300.000000000001</v>
+        <v>2800</v>
       </c>
       <c r="H2242">
         <v>2</v>
       </c>
       <c r="I2242" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2242" s="2">
@@ -85242,31 +85237,28 @@
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2243">
-        <v>287328</v>
+        <v>113504</v>
       </c>
       <c r="D2243">
-        <v>51719.04</v>
-      </c>
-      <c r="E2243">
-        <v>339047</v>
+        <v>0</v>
       </c>
       <c r="F2243">
-        <v>35.04</v>
+        <v>35.47</v>
       </c>
       <c r="G2243">
-        <v>8200</v>
+        <v>3200</v>
       </c>
       <c r="H2243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2243" t="inlineStr">
         <is>
@@ -85280,35 +85272,35 @@
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>SREE PALANIANDAVAR ALLOYS AND STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2244">
-        <v>130837.5</v>
+        <v>222201</v>
       </c>
       <c r="D2244">
-        <v>23550.76</v>
+        <v>39996.18</v>
       </c>
       <c r="E2244">
-        <v>154388</v>
+        <v>262197</v>
       </c>
       <c r="F2244">
-        <v>34.89</v>
+        <v>35.27</v>
       </c>
       <c r="G2244">
-        <v>3750</v>
+        <v>6299.999999999999</v>
       </c>
       <c r="H2244">
         <v>1</v>
       </c>
       <c r="I2244" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J2244" s="2">
@@ -85318,35 +85310,35 @@
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>BHOLARAM METAL INDUSTRIES PVT LTD</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2245">
-        <v>245490</v>
+        <v>222012</v>
       </c>
       <c r="D2245">
-        <v>44188.2</v>
+        <v>39962.16</v>
       </c>
       <c r="E2245">
-        <v>289678</v>
+        <v>261974</v>
       </c>
       <c r="F2245">
-        <v>25.05</v>
+        <v>35.24</v>
       </c>
       <c r="G2245">
-        <v>9800</v>
+        <v>6300</v>
       </c>
       <c r="H2245">
         <v>1</v>
       </c>
       <c r="I2245" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J2245" s="2">
@@ -85356,32 +85348,35 @@
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2246">
-        <v>71910</v>
+        <v>220815</v>
       </c>
       <c r="D2246">
-        <v>3341.52</v>
+        <v>39746.7</v>
+      </c>
+      <c r="E2246">
+        <v>260561</v>
       </c>
       <c r="F2246">
-        <v>21.15</v>
+        <v>35.05</v>
       </c>
       <c r="G2246">
-        <v>3400</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H2246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2246" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J2246" s="2">
@@ -85391,25 +85386,28 @@
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>SNAM ALLOYS PRIVATE LIMITED</t>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2247">
-        <v>138732</v>
+        <v>287328</v>
       </c>
       <c r="D2247">
-        <v>0</v>
+        <v>51719.04</v>
+      </c>
+      <c r="E2247">
+        <v>339047</v>
       </c>
       <c r="F2247">
-        <v>21.02</v>
+        <v>35.04</v>
       </c>
       <c r="G2247">
-        <v>6600</v>
+        <v>8200</v>
       </c>
       <c r="H2247">
         <v>1</v>
@@ -85426,35 +85424,35 @@
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>PRINCE ALLOYS PVT LTD</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2248">
-        <v>110628</v>
+        <v>130837.5</v>
       </c>
       <c r="D2248">
-        <v>19913.04</v>
+        <v>23550.76</v>
       </c>
       <c r="E2248">
-        <v>130541</v>
+        <v>154388</v>
       </c>
       <c r="F2248">
-        <v>17.56</v>
+        <v>34.89</v>
       </c>
       <c r="G2248">
-        <v>6300.000000000001</v>
+        <v>3750</v>
       </c>
       <c r="H2248">
         <v>1</v>
       </c>
       <c r="I2248" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2248" s="2">
@@ -85464,35 +85462,35 @@
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>PRINCE ROLLINGS PVT LTD</t>
+          <t>ADRI STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2249">
-        <v>110250</v>
+        <v>246401</v>
       </c>
       <c r="D2249">
-        <v>19845</v>
+        <v>47497.14</v>
       </c>
       <c r="E2249">
-        <v>130095</v>
+        <v>311371</v>
       </c>
       <c r="F2249">
-        <v>17.5</v>
+        <v>31.19</v>
       </c>
       <c r="G2249">
-        <v>6300</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H2249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2249" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2249" s="2">
@@ -85502,7 +85500,7 @@
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>ADRI STEEL PRIVATE LIMITED</t>
+          <t>BHOLARAM METAL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
@@ -85511,26 +85509,26 @@
         </is>
       </c>
       <c r="C2250">
-        <v>126558</v>
+        <v>245490</v>
       </c>
       <c r="D2250">
-        <v>25925.4</v>
+        <v>44188.2</v>
       </c>
       <c r="E2250">
-        <v>169956</v>
+        <v>289678</v>
       </c>
       <c r="F2250">
-        <v>16.02</v>
+        <v>25.05</v>
       </c>
       <c r="G2250">
-        <v>7900</v>
+        <v>9800</v>
       </c>
       <c r="H2250">
         <v>1</v>
       </c>
       <c r="I2250" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2250" s="2">
@@ -85540,28 +85538,28 @@
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>BHOLARAM METAL INDUSTRIES PVT LTD</t>
+          <t>RAJURI STEEL AND TMT BARS PVT LTD</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>Tundish Ramming Mix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2251">
-        <v>225000</v>
+        <v>225180</v>
       </c>
       <c r="D2251">
-        <v>40500</v>
+        <v>63212.4</v>
       </c>
       <c r="E2251">
-        <v>265500</v>
+        <v>414392</v>
       </c>
       <c r="F2251">
-        <v>10</v>
+        <v>25.02</v>
       </c>
       <c r="G2251">
-        <v>22500</v>
+        <v>9000</v>
       </c>
       <c r="H2251">
         <v>1</v>
@@ -85578,35 +85576,32 @@
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>DVS Metals and Scraps (FZE)</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2252">
-        <v>750</v>
+        <v>71910</v>
       </c>
       <c r="D2252">
-        <v>0</v>
-      </c>
-      <c r="E2252">
-        <v>750</v>
+        <v>3341.52</v>
       </c>
       <c r="F2252">
-        <v>6</v>
+        <v>21.15</v>
       </c>
       <c r="G2252">
-        <v>125</v>
+        <v>3400</v>
       </c>
       <c r="H2252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2252" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J2252" s="2">
@@ -85616,25 +85611,25 @@
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>ADRI STEEL PRIVATE LIMITED</t>
+          <t>SNAM ALLOYS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2253">
-        <v>17472</v>
+        <v>138732</v>
       </c>
       <c r="D2253">
         <v>0</v>
       </c>
       <c r="F2253">
-        <v>5.46</v>
+        <v>21.02</v>
       </c>
       <c r="G2253">
-        <v>3200</v>
+        <v>6600</v>
       </c>
       <c r="H2253">
         <v>1</v>
@@ -85651,35 +85646,35 @@
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>SNAM ALLOYS PRIVATE LIMITED</t>
+          <t>PRINCE ALLOYS PVT LTD</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2254">
-        <v>17600</v>
+        <v>110628</v>
       </c>
       <c r="D2254">
-        <v>28139.76</v>
+        <v>19913.04</v>
       </c>
       <c r="E2254">
-        <v>184472</v>
+        <v>130541</v>
       </c>
       <c r="F2254">
-        <v>4</v>
+        <v>17.56</v>
       </c>
       <c r="G2254">
-        <v>4400</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H2254">
         <v>1</v>
       </c>
       <c r="I2254" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J2254" s="2">
@@ -85689,38 +85684,331 @@
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>TEXCON STEELS LIMITED</t>
+          <t>PRINCE ROLLINGS PVT LTD</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>Tundish Ramming Mix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2255">
-        <v>65575</v>
+        <v>110250</v>
       </c>
       <c r="D2255">
-        <v>11803.5</v>
+        <v>19845</v>
       </c>
       <c r="E2255">
-        <v>77379</v>
+        <v>130095</v>
       </c>
       <c r="F2255">
-        <v>3.05</v>
+        <v>17.5</v>
       </c>
       <c r="G2255">
-        <v>21500</v>
+        <v>6300</v>
       </c>
       <c r="H2255">
         <v>1</v>
       </c>
       <c r="I2255" t="inlineStr">
         <is>
+          <t>Vishnu Kankani</t>
+        </is>
+      </c>
+      <c r="J2255" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>BHOLARAM METAL INDUSTRIES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>Tundish Ramming Mix</t>
+        </is>
+      </c>
+      <c r="C2256">
+        <v>225000</v>
+      </c>
+      <c r="D2256">
+        <v>40500</v>
+      </c>
+      <c r="E2256">
+        <v>265500</v>
+      </c>
+      <c r="F2256">
+        <v>10</v>
+      </c>
+      <c r="G2256">
+        <v>22500</v>
+      </c>
+      <c r="H2256">
+        <v>1</v>
+      </c>
+      <c r="I2256" t="inlineStr">
+        <is>
           <t>Shresth Maheshwari</t>
         </is>
       </c>
-      <c r="J2255" s="2">
+      <c r="J2256" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>Pulkit Metals Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>Tundish Ramming Mix</t>
+        </is>
+      </c>
+      <c r="C2257">
+        <v>270000</v>
+      </c>
+      <c r="D2257">
+        <v>48600</v>
+      </c>
+      <c r="E2257">
+        <v>318600</v>
+      </c>
+      <c r="F2257">
+        <v>10</v>
+      </c>
+      <c r="G2257">
+        <v>27000</v>
+      </c>
+      <c r="H2257">
+        <v>1</v>
+      </c>
+      <c r="I2257" t="inlineStr">
+        <is>
+          <t>Abhijit Maloo</t>
+        </is>
+      </c>
+      <c r="J2257" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>DVS Metals and Scraps (FZE)</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
+        </is>
+      </c>
+      <c r="C2258">
+        <v>750</v>
+      </c>
+      <c r="D2258">
+        <v>0</v>
+      </c>
+      <c r="E2258">
+        <v>750</v>
+      </c>
+      <c r="F2258">
+        <v>6</v>
+      </c>
+      <c r="G2258">
+        <v>125</v>
+      </c>
+      <c r="H2258">
+        <v>1</v>
+      </c>
+      <c r="I2258" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J2258" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>RAJURI STEEL AND TMT BARS PVT LTD</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>Tundish Ramming Mix</t>
+        </is>
+      </c>
+      <c r="C2259">
+        <v>126000</v>
+      </c>
+      <c r="D2259">
+        <v>0</v>
+      </c>
+      <c r="F2259">
+        <v>6</v>
+      </c>
+      <c r="G2259">
+        <v>21000</v>
+      </c>
+      <c r="H2259">
+        <v>1</v>
+      </c>
+      <c r="I2259" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J2259" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>ADRI STEEL PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>Nali Top</t>
+        </is>
+      </c>
+      <c r="C2260">
+        <v>17472</v>
+      </c>
+      <c r="D2260">
+        <v>0</v>
+      </c>
+      <c r="F2260">
+        <v>5.46</v>
+      </c>
+      <c r="G2260">
+        <v>3200</v>
+      </c>
+      <c r="H2260">
+        <v>1</v>
+      </c>
+      <c r="I2260" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J2260" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>SNAM ALLOYS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>Ordinary Ramming Mass</t>
+        </is>
+      </c>
+      <c r="C2261">
+        <v>17600</v>
+      </c>
+      <c r="D2261">
+        <v>28139.76</v>
+      </c>
+      <c r="E2261">
+        <v>184472</v>
+      </c>
+      <c r="F2261">
+        <v>4</v>
+      </c>
+      <c r="G2261">
+        <v>4400</v>
+      </c>
+      <c r="H2261">
+        <v>1</v>
+      </c>
+      <c r="I2261" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J2261" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>TEXCON STEELS LIMITED</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>Tundish Ramming Mix</t>
+        </is>
+      </c>
+      <c r="C2262">
+        <v>65575</v>
+      </c>
+      <c r="D2262">
+        <v>11803.5</v>
+      </c>
+      <c r="E2262">
+        <v>77379</v>
+      </c>
+      <c r="F2262">
+        <v>3.05</v>
+      </c>
+      <c r="G2262">
+        <v>21500</v>
+      </c>
+      <c r="H2262">
+        <v>1</v>
+      </c>
+      <c r="I2262" t="inlineStr">
+        <is>
+          <t>Shresth Maheshwari</t>
+        </is>
+      </c>
+      <c r="J2262" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C2263">
+        <v>634000</v>
+      </c>
+      <c r="D2263">
+        <v>114120</v>
+      </c>
+      <c r="E2263">
+        <v>748120</v>
+      </c>
+      <c r="F2263">
+        <v>2</v>
+      </c>
+      <c r="G2263">
+        <v>317000</v>
+      </c>
+      <c r="H2263">
+        <v>1</v>
+      </c>
+      <c r="I2263" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="J2263" s="2">
         <v>46023</v>
       </c>
     </row>

--- a/src/DayBook_all.xlsx
+++ b/src/DayBook_all.xlsx
@@ -84450,30 +84450,35 @@
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2222">
-        <v>20850</v>
+        <v>1090828</v>
       </c>
       <c r="D2222">
-        <v>3753</v>
+        <v>196349.04</v>
       </c>
       <c r="E2222">
-        <v>24603</v>
+        <v>1287177</v>
       </c>
       <c r="F2222">
-        <v>150</v>
+        <v>143.53</v>
       </c>
       <c r="G2222">
-        <v>139</v>
+        <v>7600</v>
       </c>
       <c r="H2222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2222" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2222" s="2">
@@ -84483,7 +84488,7 @@
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>Prakash Sponge Iron &amp; Power Pvt Ltd</t>
+          <t>M S METALS &amp; STEELS PRIVATE LIMITED - TN - Unit 1</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
@@ -84492,26 +84497,26 @@
         </is>
       </c>
       <c r="C2223">
-        <v>1090828</v>
+        <v>1254601.5</v>
       </c>
       <c r="D2223">
-        <v>196349.04</v>
+        <v>225828.27</v>
       </c>
       <c r="E2223">
-        <v>1287177</v>
+        <v>1480430</v>
       </c>
       <c r="F2223">
-        <v>143.53</v>
+        <v>138.63</v>
       </c>
       <c r="G2223">
-        <v>7600</v>
+        <v>9050</v>
       </c>
       <c r="H2223">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2223" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J2223" s="2">
@@ -84521,7 +84526,7 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>M S METALS &amp; STEELS PRIVATE LIMITED - TN - Unit 1</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
@@ -84530,26 +84535,26 @@
         </is>
       </c>
       <c r="C2224">
-        <v>1254601.5</v>
+        <v>1016730</v>
       </c>
       <c r="D2224">
-        <v>225828.27</v>
+        <v>183011.4</v>
       </c>
       <c r="E2224">
-        <v>1480430</v>
+        <v>1199743</v>
       </c>
       <c r="F2224">
-        <v>138.63</v>
+        <v>130.35</v>
       </c>
       <c r="G2224">
-        <v>9050</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H2224">
         <v>6</v>
       </c>
       <c r="I2224" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2224" s="2">
@@ -84559,28 +84564,28 @@
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>Shri Tirupati Steel Cast Ltd</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2225">
-        <v>1016730</v>
+        <v>405376</v>
       </c>
       <c r="D2225">
-        <v>183011.4</v>
+        <v>72967.67999999999</v>
       </c>
       <c r="E2225">
-        <v>1199743</v>
+        <v>478343</v>
       </c>
       <c r="F2225">
-        <v>130.35</v>
+        <v>126.68</v>
       </c>
       <c r="G2225">
-        <v>7799.999999999999</v>
+        <v>3200</v>
       </c>
       <c r="H2225">
         <v>6</v>
@@ -84597,28 +84602,28 @@
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>Shri Tirupati Steel Cast Ltd</t>
+          <t>Prime Gold International Limited</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2226">
-        <v>405376</v>
+        <v>1006652.5</v>
       </c>
       <c r="D2226">
-        <v>72967.67999999999</v>
+        <v>181197.45</v>
       </c>
       <c r="E2226">
-        <v>478343</v>
+        <v>1187850</v>
       </c>
       <c r="F2226">
-        <v>126.68</v>
+        <v>125.05</v>
       </c>
       <c r="G2226">
-        <v>3200</v>
+        <v>8049.999999999999</v>
       </c>
       <c r="H2226">
         <v>6</v>
@@ -84635,7 +84640,7 @@
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>Prime Gold International Limited</t>
+          <t>KUBAIR STEEL AND POWER LLP</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
@@ -84644,22 +84649,22 @@
         </is>
       </c>
       <c r="C2227">
-        <v>1006652.5</v>
+        <v>964960</v>
       </c>
       <c r="D2227">
-        <v>181197.45</v>
+        <v>173692.8</v>
       </c>
       <c r="E2227">
-        <v>1187850</v>
+        <v>1138652</v>
       </c>
       <c r="F2227">
-        <v>125.05</v>
+        <v>120.62</v>
       </c>
       <c r="G2227">
-        <v>8049.999999999999</v>
+        <v>8000</v>
       </c>
       <c r="H2227">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2227" t="inlineStr">
         <is>
@@ -84673,7 +84678,7 @@
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>KUBAIR STEEL AND POWER LLP</t>
+          <t>TEXCON STEELS LIMITED</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
@@ -84682,26 +84687,26 @@
         </is>
       </c>
       <c r="C2228">
-        <v>964960</v>
+        <v>923307</v>
       </c>
       <c r="D2228">
-        <v>173692.8</v>
+        <v>166195.26</v>
       </c>
       <c r="E2228">
-        <v>1138652</v>
+        <v>1089503</v>
       </c>
       <c r="F2228">
-        <v>120.62</v>
+        <v>119.91</v>
       </c>
       <c r="G2228">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="H2228">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2228" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2228" s="2">
@@ -84711,35 +84716,35 @@
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>TEXCON STEELS LIMITED</t>
+          <t>S.R. STEEL PVT LTD</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C2229">
-        <v>923307</v>
+        <v>1062544</v>
       </c>
       <c r="D2229">
-        <v>166195.26</v>
+        <v>0</v>
       </c>
       <c r="E2229">
-        <v>1089503</v>
+        <v>1062544</v>
       </c>
       <c r="F2229">
-        <v>119.91</v>
+        <v>112</v>
       </c>
       <c r="G2229">
-        <v>7700</v>
+        <v>9487</v>
       </c>
       <c r="H2229">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2229" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2229" s="2">
@@ -84749,31 +84754,31 @@
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>S.R. STEEL PVT LTD</t>
+          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2230">
-        <v>1062544</v>
+        <v>887280</v>
       </c>
       <c r="D2230">
-        <v>0</v>
+        <v>159710.4</v>
       </c>
       <c r="E2230">
-        <v>1062544</v>
+        <v>1046991</v>
       </c>
       <c r="F2230">
-        <v>112</v>
+        <v>110.91</v>
       </c>
       <c r="G2230">
-        <v>9487</v>
+        <v>8000</v>
       </c>
       <c r="H2230">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I2230" t="inlineStr">
         <is>
@@ -84787,7 +84792,7 @@
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>M S METALS AND STEELS PVT LTD (ANCHEPALYA)</t>
+          <t>Arun Vyapar Udyog Private Limited</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
@@ -84796,22 +84801,22 @@
         </is>
       </c>
       <c r="C2231">
-        <v>887280</v>
+        <v>859971</v>
       </c>
       <c r="D2231">
-        <v>159710.4</v>
+        <v>154794.78</v>
       </c>
       <c r="E2231">
-        <v>1046991</v>
+        <v>1014767</v>
       </c>
       <c r="F2231">
-        <v>110.91</v>
+        <v>92.47</v>
       </c>
       <c r="G2231">
-        <v>8000</v>
+        <v>9300</v>
       </c>
       <c r="H2231">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2231" t="inlineStr">
         <is>
@@ -84825,7 +84830,7 @@
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>Arun Vyapar Udyog Private Limited</t>
+          <t>Keshree Metalurgies Pvt Ltd</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
@@ -84834,19 +84839,19 @@
         </is>
       </c>
       <c r="C2232">
-        <v>859971</v>
+        <v>795637.5</v>
       </c>
       <c r="D2232">
-        <v>154794.78</v>
+        <v>143214.75</v>
       </c>
       <c r="E2232">
-        <v>1014767</v>
+        <v>938853</v>
       </c>
       <c r="F2232">
-        <v>92.47</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="G2232">
-        <v>9300</v>
+        <v>8750</v>
       </c>
       <c r="H2232">
         <v>4</v>
@@ -84863,7 +84868,7 @@
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>Keshree Metalurgies Pvt Ltd</t>
+          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
@@ -84872,26 +84877,26 @@
         </is>
       </c>
       <c r="C2233">
-        <v>795637.5</v>
+        <v>701766</v>
       </c>
       <c r="D2233">
-        <v>143214.75</v>
+        <v>126317.88</v>
       </c>
       <c r="E2233">
-        <v>938853</v>
+        <v>828083</v>
       </c>
       <c r="F2233">
-        <v>90.93000000000001</v>
+        <v>89.97</v>
       </c>
       <c r="G2233">
-        <v>8750</v>
+        <v>7799.999999999999</v>
       </c>
       <c r="H2233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2233" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2233" s="2">
@@ -84901,35 +84906,35 @@
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>S K STEEL TECH PRIVATE LIMITED_x000D_</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2234">
-        <v>701766</v>
+        <v>548508</v>
       </c>
       <c r="D2234">
-        <v>126317.88</v>
+        <v>108333.72</v>
       </c>
       <c r="E2234">
-        <v>828083</v>
+        <v>710188</v>
       </c>
       <c r="F2234">
-        <v>89.97</v>
+        <v>85.03999999999999</v>
       </c>
       <c r="G2234">
-        <v>7799.999999999999</v>
+        <v>6450</v>
       </c>
       <c r="H2234">
         <v>3</v>
       </c>
       <c r="I2234" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J2234" s="2">
@@ -84939,35 +84944,35 @@
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>Jai Hind Rolling Mills India Pvt Limited</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2235">
-        <v>548508</v>
+        <v>536640</v>
       </c>
       <c r="D2235">
-        <v>108333.72</v>
+        <v>96595.2</v>
       </c>
       <c r="E2235">
-        <v>710188</v>
+        <v>633235</v>
       </c>
       <c r="F2235">
-        <v>85.03999999999999</v>
+        <v>67.08</v>
       </c>
       <c r="G2235">
-        <v>6450</v>
+        <v>8000</v>
       </c>
       <c r="H2235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2235" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2235" s="2">
@@ -84977,31 +84982,28 @@
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>Jai Hind Rolling Mills India Pvt Limited</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C2236">
-        <v>536640</v>
+        <v>87166.98000000001</v>
       </c>
       <c r="D2236">
-        <v>96595.2</v>
-      </c>
-      <c r="E2236">
-        <v>633235</v>
+        <v>4358.34</v>
       </c>
       <c r="F2236">
-        <v>67.08</v>
+        <v>62.28</v>
       </c>
       <c r="G2236">
-        <v>8000</v>
+        <v>1399.598265895954</v>
       </c>
       <c r="H2236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2236" t="inlineStr">
         <is>
@@ -85015,32 +85017,35 @@
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>Mahrishi Meltchems Pvt Ltd</t>
+          <t>GOVAAN STEELS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2237">
-        <v>87166.98000000001</v>
+        <v>481110</v>
       </c>
       <c r="D2237">
-        <v>4358.34</v>
+        <v>86599.8</v>
+      </c>
+      <c r="E2237">
+        <v>567709</v>
       </c>
       <c r="F2237">
-        <v>62.28</v>
+        <v>60.9</v>
       </c>
       <c r="G2237">
-        <v>1399.598265895954</v>
+        <v>7900</v>
       </c>
       <c r="H2237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2237" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J2237" s="2">
@@ -85050,35 +85055,32 @@
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>GOVAAN STEELS PRIVATE LIMITED</t>
+          <t>Adishakti Smelters Private Limited</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2238">
-        <v>481110</v>
+        <v>160256</v>
       </c>
       <c r="D2238">
-        <v>86599.8</v>
-      </c>
-      <c r="E2238">
-        <v>567709</v>
+        <v>0</v>
       </c>
       <c r="F2238">
-        <v>60.9</v>
+        <v>50.08</v>
       </c>
       <c r="G2238">
-        <v>7900</v>
+        <v>3200</v>
       </c>
       <c r="H2238">
         <v>2</v>
       </c>
       <c r="I2238" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2238" s="2">
@@ -85088,7 +85090,7 @@
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>Adishakti Smelters Private Limited</t>
+          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
@@ -85097,16 +85099,19 @@
         </is>
       </c>
       <c r="C2239">
-        <v>160256</v>
+        <v>158458.5</v>
       </c>
       <c r="D2239">
-        <v>0</v>
+        <v>28522.53</v>
+      </c>
+      <c r="E2239">
+        <v>186981</v>
       </c>
       <c r="F2239">
-        <v>50.08</v>
+        <v>45.93</v>
       </c>
       <c r="G2239">
-        <v>3200</v>
+        <v>3450</v>
       </c>
       <c r="H2239">
         <v>2</v>
@@ -85123,7 +85128,7 @@
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>RDTMT STEELS INDIA PVT LTD-KA</t>
+          <t>A ONE STEELS INDIA LIMITED-GBD</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
@@ -85132,22 +85137,22 @@
         </is>
       </c>
       <c r="C2240">
-        <v>158458.5</v>
+        <v>138379.5</v>
       </c>
       <c r="D2240">
-        <v>28522.53</v>
+        <v>24908.31</v>
       </c>
       <c r="E2240">
-        <v>186981</v>
+        <v>163288</v>
       </c>
       <c r="F2240">
-        <v>45.93</v>
+        <v>43.93</v>
       </c>
       <c r="G2240">
-        <v>3450</v>
+        <v>3150</v>
       </c>
       <c r="H2240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2240" t="inlineStr">
         <is>
@@ -85161,31 +85166,31 @@
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>A ONE STEELS INDIA LIMITED-GBD</t>
+          <t>RELIANCE CONCAST SOLUTIONS</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Quartz Powder</t>
         </is>
       </c>
       <c r="C2241">
-        <v>138379.5</v>
+        <v>100464</v>
       </c>
       <c r="D2241">
-        <v>24908.31</v>
+        <v>5023.200000000001</v>
       </c>
       <c r="E2241">
-        <v>163288</v>
+        <v>105488</v>
       </c>
       <c r="F2241">
-        <v>43.93</v>
+        <v>35.88</v>
       </c>
       <c r="G2241">
-        <v>3150</v>
+        <v>2800</v>
       </c>
       <c r="H2241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2241" t="inlineStr">
         <is>
@@ -85199,28 +85204,25 @@
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>RELIANCE CONCAST SOLUTIONS</t>
+          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>Quartz Powder</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2242">
-        <v>100464</v>
+        <v>113504</v>
       </c>
       <c r="D2242">
-        <v>5023.200000000001</v>
-      </c>
-      <c r="E2242">
-        <v>105488</v>
+        <v>0</v>
       </c>
       <c r="F2242">
-        <v>35.88</v>
+        <v>35.47</v>
       </c>
       <c r="G2242">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="H2242">
         <v>2</v>
@@ -85237,32 +85239,35 @@
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>Sugna Sponge &amp; Power Pvt Ltd</t>
+          <t>SREE PALANIANDAVAR ALLOYS AND STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2243">
-        <v>113504</v>
+        <v>222201</v>
       </c>
       <c r="D2243">
-        <v>0</v>
+        <v>39996.18</v>
+      </c>
+      <c r="E2243">
+        <v>262197</v>
       </c>
       <c r="F2243">
-        <v>35.47</v>
+        <v>35.27</v>
       </c>
       <c r="G2243">
-        <v>3200</v>
+        <v>6299.999999999999</v>
       </c>
       <c r="H2243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2243" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J2243" s="2">
@@ -85272,7 +85277,7 @@
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>SREE PALANIANDAVAR ALLOYS AND STEELS PVT LTD</t>
+          <t>M.A.STEELS (P) LTD</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
@@ -85281,19 +85286,19 @@
         </is>
       </c>
       <c r="C2244">
-        <v>222201</v>
+        <v>222012</v>
       </c>
       <c r="D2244">
-        <v>39996.18</v>
+        <v>39962.16</v>
       </c>
       <c r="E2244">
-        <v>262197</v>
+        <v>261974</v>
       </c>
       <c r="F2244">
-        <v>35.27</v>
+        <v>35.24</v>
       </c>
       <c r="G2244">
-        <v>6299.999999999999</v>
+        <v>6300</v>
       </c>
       <c r="H2244">
         <v>1</v>
@@ -85310,7 +85315,7 @@
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>M.A.STEELS (P) LTD</t>
+          <t>Pattambi Brothers</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
@@ -85319,22 +85324,22 @@
         </is>
       </c>
       <c r="C2245">
-        <v>222012</v>
+        <v>220815</v>
       </c>
       <c r="D2245">
-        <v>39962.16</v>
+        <v>39746.7</v>
       </c>
       <c r="E2245">
-        <v>261974</v>
+        <v>260561</v>
       </c>
       <c r="F2245">
-        <v>35.24</v>
+        <v>35.05</v>
       </c>
       <c r="G2245">
-        <v>6300</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H2245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2245" t="inlineStr">
         <is>
@@ -85348,35 +85353,35 @@
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>Pattambi Brothers</t>
+          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2246">
-        <v>220815</v>
+        <v>287328</v>
       </c>
       <c r="D2246">
-        <v>39746.7</v>
+        <v>51719.04</v>
       </c>
       <c r="E2246">
-        <v>260561</v>
+        <v>339047</v>
       </c>
       <c r="F2246">
-        <v>35.05</v>
+        <v>35.04</v>
       </c>
       <c r="G2246">
-        <v>6300.000000000001</v>
+        <v>8200</v>
       </c>
       <c r="H2246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2246" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2246" s="2">
@@ -85386,7 +85391,7 @@
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>KANNAPPAN IRON AND STEEL COMPANY PRIVATE LIMITED</t>
+          <t>Mahrishi Alloys Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
@@ -85395,19 +85400,19 @@
         </is>
       </c>
       <c r="C2247">
-        <v>287328</v>
+        <v>130837.5</v>
       </c>
       <c r="D2247">
-        <v>51719.04</v>
+        <v>23550.76</v>
       </c>
       <c r="E2247">
-        <v>339047</v>
+        <v>154388</v>
       </c>
       <c r="F2247">
-        <v>35.04</v>
+        <v>34.89</v>
       </c>
       <c r="G2247">
-        <v>8200</v>
+        <v>3750</v>
       </c>
       <c r="H2247">
         <v>1</v>
@@ -85424,7 +85429,7 @@
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>Mahrishi Alloys Pvt. Ltd.</t>
+          <t>ADRI STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
@@ -85433,22 +85438,22 @@
         </is>
       </c>
       <c r="C2248">
-        <v>130837.5</v>
+        <v>246401</v>
       </c>
       <c r="D2248">
-        <v>23550.76</v>
+        <v>47497.14</v>
       </c>
       <c r="E2248">
-        <v>154388</v>
+        <v>311371</v>
       </c>
       <c r="F2248">
-        <v>34.89</v>
+        <v>31.19</v>
       </c>
       <c r="G2248">
-        <v>3750</v>
+        <v>7900.000000000001</v>
       </c>
       <c r="H2248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2248" t="inlineStr">
         <is>
@@ -85462,7 +85467,7 @@
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>ADRI STEEL PRIVATE LIMITED</t>
+          <t>BHOLARAM METAL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
@@ -85471,26 +85476,26 @@
         </is>
       </c>
       <c r="C2249">
-        <v>246401</v>
+        <v>245490</v>
       </c>
       <c r="D2249">
-        <v>47497.14</v>
+        <v>44188.2</v>
       </c>
       <c r="E2249">
-        <v>311371</v>
+        <v>289678</v>
       </c>
       <c r="F2249">
-        <v>31.19</v>
+        <v>25.05</v>
       </c>
       <c r="G2249">
-        <v>7900.000000000001</v>
+        <v>9800</v>
       </c>
       <c r="H2249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2249" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2249" s="2">
@@ -85500,7 +85505,7 @@
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>BHOLARAM METAL INDUSTRIES PVT LTD</t>
+          <t>RAJURI STEEL AND TMT BARS PVT LTD</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
@@ -85509,19 +85514,19 @@
         </is>
       </c>
       <c r="C2250">
-        <v>245490</v>
+        <v>225180</v>
       </c>
       <c r="D2250">
-        <v>44188.2</v>
+        <v>63212.4</v>
       </c>
       <c r="E2250">
-        <v>289678</v>
+        <v>414392</v>
       </c>
       <c r="F2250">
-        <v>25.05</v>
+        <v>25.02</v>
       </c>
       <c r="G2250">
-        <v>9800</v>
+        <v>9000</v>
       </c>
       <c r="H2250">
         <v>1</v>
@@ -85538,35 +85543,32 @@
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>RAJURI STEEL AND TMT BARS PVT LTD</t>
+          <t>KAIRAV STEELS PVT LTD</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2251">
-        <v>225180</v>
+        <v>71910</v>
       </c>
       <c r="D2251">
-        <v>63212.4</v>
-      </c>
-      <c r="E2251">
-        <v>414392</v>
+        <v>3341.52</v>
       </c>
       <c r="F2251">
-        <v>25.02</v>
+        <v>21.15</v>
       </c>
       <c r="G2251">
-        <v>9000</v>
+        <v>3400</v>
       </c>
       <c r="H2251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2251" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Sunil Rathi</t>
         </is>
       </c>
       <c r="J2251" s="2">
@@ -85576,32 +85578,32 @@
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>KAIRAV STEELS PVT LTD</t>
+          <t>SNAM ALLOYS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Boric Acid Premix</t>
         </is>
       </c>
       <c r="C2252">
-        <v>71910</v>
+        <v>138732</v>
       </c>
       <c r="D2252">
-        <v>3341.52</v>
+        <v>0</v>
       </c>
       <c r="F2252">
-        <v>21.15</v>
+        <v>21.02</v>
       </c>
       <c r="G2252">
-        <v>3400</v>
+        <v>6600</v>
       </c>
       <c r="H2252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2252" t="inlineStr">
         <is>
-          <t>Sunil Rathi</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2252" s="2">
@@ -85611,7 +85613,7 @@
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>SNAM ALLOYS PRIVATE LIMITED</t>
+          <t>PRINCE ALLOYS PVT LTD</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
@@ -85620,23 +85622,26 @@
         </is>
       </c>
       <c r="C2253">
-        <v>138732</v>
+        <v>110628</v>
       </c>
       <c r="D2253">
-        <v>0</v>
+        <v>19913.04</v>
+      </c>
+      <c r="E2253">
+        <v>130541</v>
       </c>
       <c r="F2253">
-        <v>21.02</v>
+        <v>17.56</v>
       </c>
       <c r="G2253">
-        <v>6600</v>
+        <v>6300.000000000001</v>
       </c>
       <c r="H2253">
         <v>1</v>
       </c>
       <c r="I2253" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Vishnu Kankani</t>
         </is>
       </c>
       <c r="J2253" s="2">
@@ -85646,7 +85651,7 @@
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>PRINCE ALLOYS PVT LTD</t>
+          <t>PRINCE ROLLINGS PVT LTD</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
@@ -85655,19 +85660,19 @@
         </is>
       </c>
       <c r="C2254">
-        <v>110628</v>
+        <v>110250</v>
       </c>
       <c r="D2254">
-        <v>19913.04</v>
+        <v>19845</v>
       </c>
       <c r="E2254">
-        <v>130541</v>
+        <v>130095</v>
       </c>
       <c r="F2254">
-        <v>17.56</v>
+        <v>17.5</v>
       </c>
       <c r="G2254">
-        <v>6300.000000000001</v>
+        <v>6300</v>
       </c>
       <c r="H2254">
         <v>1</v>
@@ -85684,35 +85689,35 @@
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>PRINCE ROLLINGS PVT LTD</t>
+          <t>BHOLARAM METAL INDUSTRIES PVT LTD</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>Boric Acid Premix</t>
+          <t>Tundish Ramming Mix</t>
         </is>
       </c>
       <c r="C2255">
-        <v>110250</v>
+        <v>225000</v>
       </c>
       <c r="D2255">
-        <v>19845</v>
+        <v>40500</v>
       </c>
       <c r="E2255">
-        <v>130095</v>
+        <v>265500</v>
       </c>
       <c r="F2255">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="G2255">
-        <v>6300</v>
+        <v>22500</v>
       </c>
       <c r="H2255">
         <v>1</v>
       </c>
       <c r="I2255" t="inlineStr">
         <is>
-          <t>Vishnu Kankani</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2255" s="2">
@@ -85722,7 +85727,7 @@
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>BHOLARAM METAL INDUSTRIES PVT LTD</t>
+          <t>Pulkit Metals Pvt Ltd</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
@@ -85731,26 +85736,26 @@
         </is>
       </c>
       <c r="C2256">
-        <v>225000</v>
+        <v>270000</v>
       </c>
       <c r="D2256">
-        <v>40500</v>
+        <v>48600</v>
       </c>
       <c r="E2256">
-        <v>265500</v>
+        <v>318600</v>
       </c>
       <c r="F2256">
         <v>10</v>
       </c>
       <c r="G2256">
-        <v>22500</v>
+        <v>27000</v>
       </c>
       <c r="H2256">
         <v>1</v>
       </c>
       <c r="I2256" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Abhijit Maloo</t>
         </is>
       </c>
       <c r="J2256" s="2">
@@ -85760,35 +85765,35 @@
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>Pulkit Metals Pvt Ltd</t>
+          <t>DVS Metals and Scraps (FZE)</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>Tundish Ramming Mix</t>
+          <t>Boron Oxide Premix</t>
         </is>
       </c>
       <c r="C2257">
-        <v>270000</v>
+        <v>750</v>
       </c>
       <c r="D2257">
-        <v>48600</v>
+        <v>0</v>
       </c>
       <c r="E2257">
-        <v>318600</v>
+        <v>750</v>
       </c>
       <c r="F2257">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2257">
-        <v>27000</v>
+        <v>125</v>
       </c>
       <c r="H2257">
         <v>1</v>
       </c>
       <c r="I2257" t="inlineStr">
         <is>
-          <t>Abhijit Maloo</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2257" s="2">
@@ -85798,28 +85803,25 @@
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>DVS Metals and Scraps (FZE)</t>
+          <t>RAJURI STEEL AND TMT BARS PVT LTD</t>
         </is>
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>Boron Oxide Premix</t>
+          <t>Tundish Ramming Mix</t>
         </is>
       </c>
       <c r="C2258">
-        <v>750</v>
+        <v>126000</v>
       </c>
       <c r="D2258">
         <v>0</v>
       </c>
-      <c r="E2258">
-        <v>750</v>
-      </c>
       <c r="F2258">
         <v>6</v>
       </c>
       <c r="G2258">
-        <v>125</v>
+        <v>21000</v>
       </c>
       <c r="H2258">
         <v>1</v>
@@ -85836,32 +85838,32 @@
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>RAJURI STEEL AND TMT BARS PVT LTD</t>
+          <t>ADRI STEEL PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>Tundish Ramming Mix</t>
+          <t>Nali Top</t>
         </is>
       </c>
       <c r="C2259">
-        <v>126000</v>
+        <v>17472</v>
       </c>
       <c r="D2259">
         <v>0</v>
       </c>
       <c r="F2259">
-        <v>6</v>
+        <v>5.46</v>
       </c>
       <c r="G2259">
-        <v>21000</v>
+        <v>3200</v>
       </c>
       <c r="H2259">
         <v>1</v>
       </c>
       <c r="I2259" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2259" s="2">
@@ -85871,25 +85873,28 @@
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>ADRI STEEL PRIVATE LIMITED</t>
+          <t>SNAM ALLOYS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>Nali Top</t>
+          <t>Ordinary Ramming Mass</t>
         </is>
       </c>
       <c r="C2260">
-        <v>17472</v>
+        <v>17600</v>
       </c>
       <c r="D2260">
-        <v>0</v>
+        <v>28139.76</v>
+      </c>
+      <c r="E2260">
+        <v>184472</v>
       </c>
       <c r="F2260">
-        <v>5.46</v>
+        <v>4</v>
       </c>
       <c r="G2260">
-        <v>3200</v>
+        <v>4400</v>
       </c>
       <c r="H2260">
         <v>1</v>
@@ -85906,35 +85911,35 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>SNAM ALLOYS PRIVATE LIMITED</t>
+          <t>TEXCON STEELS LIMITED</t>
         </is>
       </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>Ordinary Ramming Mass</t>
+          <t>Tundish Ramming Mix</t>
         </is>
       </c>
       <c r="C2261">
-        <v>17600</v>
+        <v>65575</v>
       </c>
       <c r="D2261">
-        <v>28139.76</v>
+        <v>11803.5</v>
       </c>
       <c r="E2261">
-        <v>184472</v>
+        <v>77379</v>
       </c>
       <c r="F2261">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="G2261">
-        <v>4400</v>
+        <v>21500</v>
       </c>
       <c r="H2261">
         <v>1</v>
       </c>
       <c r="I2261" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Shresth Maheshwari</t>
         </is>
       </c>
       <c r="J2261" s="2">
@@ -85944,35 +85949,30 @@
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>TEXCON STEELS LIMITED</t>
-        </is>
-      </c>
-      <c r="B2262" t="inlineStr">
-        <is>
-          <t>Tundish Ramming Mix</t>
+          <t>Mahrishi Meltchems Pvt Ltd</t>
         </is>
       </c>
       <c r="C2262">
-        <v>65575</v>
+        <v>634000</v>
       </c>
       <c r="D2262">
-        <v>11803.5</v>
+        <v>114120</v>
       </c>
       <c r="E2262">
-        <v>77379</v>
+        <v>748120</v>
       </c>
       <c r="F2262">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="G2262">
-        <v>21500</v>
+        <v>317000</v>
       </c>
       <c r="H2262">
         <v>1</v>
       </c>
       <c r="I2262" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2262" s="2">
@@ -85986,19 +85986,19 @@
         </is>
       </c>
       <c r="C2263">
-        <v>634000</v>
+        <v>20850</v>
       </c>
       <c r="D2263">
-        <v>114120</v>
+        <v>3753</v>
       </c>
       <c r="E2263">
-        <v>748120</v>
+        <v>24603</v>
       </c>
       <c r="F2263">
-        <v>2</v>
+        <v>0.15</v>
       </c>
       <c r="G2263">
-        <v>317000</v>
+        <v>139000</v>
       </c>
       <c r="H2263">
         <v>1</v>

--- a/src/DayBook_all.xlsx
+++ b/src/DayBook_all.xlsx
@@ -84706,7 +84706,7 @@
       </c>
       <c r="I2228" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2228" s="2">
@@ -85495,7 +85495,7 @@
       </c>
       <c r="I2249" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2249" s="2">
@@ -85533,7 +85533,7 @@
       </c>
       <c r="I2250" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2250" s="2">
@@ -85717,7 +85717,7 @@
       </c>
       <c r="I2255" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2255" s="2">
@@ -85793,7 +85793,7 @@
       </c>
       <c r="I2257" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2257" s="2">
@@ -85828,7 +85828,7 @@
       </c>
       <c r="I2258" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2258" s="2">
@@ -85939,7 +85939,7 @@
       </c>
       <c r="I2261" t="inlineStr">
         <is>
-          <t>Shresth Maheshwari</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="J2261" s="2">
